--- a/input_files/euribor_curve.xlsx
+++ b/input_files/euribor_curve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t004672\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1CF6BD5-F416-4FFC-9FFE-85AE1C18129D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2245F774-4409-4071-BE75-8DCBD65B9C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6780" yWindow="-12495" windowWidth="15375" windowHeight="10095" activeTab="2" xr2:uid="{0A8E32F3-0BB1-4D11-836C-DFB303D664FC}"/>
+    <workbookView xWindow="-14085" yWindow="-15000" windowWidth="20235" windowHeight="14400" activeTab="2" xr2:uid="{0A8E32F3-0BB1-4D11-836C-DFB303D664FC}"/>
   </bookViews>
   <sheets>
     <sheet name="EURIBOR1M" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>months</t>
   </si>
   <si>
     <t>rates</t>
+  </si>
+  <si>
+    <t>maturities</t>
+  </si>
+  <si>
+    <t>0M</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>4M</t>
+  </si>
+  <si>
+    <t>5M</t>
+  </si>
+  <si>
+    <t>6M</t>
+  </si>
+  <si>
+    <t>7M</t>
+  </si>
+  <si>
+    <t>8M</t>
+  </si>
+  <si>
+    <t>9M</t>
+  </si>
+  <si>
+    <t>10M</t>
+  </si>
+  <si>
+    <t>11M</t>
+  </si>
+  <si>
+    <t>12M</t>
+  </si>
+  <si>
+    <t>15M</t>
+  </si>
+  <si>
+    <t>18M</t>
+  </si>
+  <si>
+    <t>21M</t>
+  </si>
+  <si>
+    <t>24M</t>
+  </si>
+  <si>
+    <t>36M</t>
+  </si>
+  <si>
+    <t>48M</t>
+  </si>
+  <si>
+    <t>60M</t>
+  </si>
+  <si>
+    <t>72M</t>
+  </si>
+  <si>
+    <t>84M</t>
+  </si>
+  <si>
+    <t>96M</t>
+  </si>
+  <si>
+    <t>108M</t>
+  </si>
+  <si>
+    <t>120M</t>
+  </si>
+  <si>
+    <t>144M</t>
+  </si>
+  <si>
+    <t>180M</t>
+  </si>
+  <si>
+    <t>240M</t>
+  </si>
+  <si>
+    <t>300M</t>
+  </si>
+  <si>
+    <t>360M</t>
   </si>
 </sst>
 </file>
@@ -49,7 +142,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -82,7 +175,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1116,254 +1209,257 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>2.012</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>2.62</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
+      <c r="A6" t="s">
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>2.83</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>3.02</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>3.22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
+      <c r="A9" t="s">
+        <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>3.22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
+      <c r="A10" t="s">
+        <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>3.22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
+      <c r="A11" t="s">
+        <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>3.22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
+      <c r="A12" t="s">
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>3.22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
+      <c r="A13" t="s">
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>3.23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
+      <c r="A14" t="s">
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>3.24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>15</v>
+      <c r="A15" t="s">
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>3.22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>18</v>
+      <c r="A16" t="s">
+        <v>17</v>
       </c>
       <c r="B16" s="2">
         <v>3.2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>21</v>
+      <c r="A17" t="s">
+        <v>18</v>
       </c>
       <c r="B17" s="2">
         <v>3.15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>24</v>
+      <c r="A18" t="s">
+        <v>19</v>
       </c>
       <c r="B18" s="2">
         <v>3.1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>36</v>
+      <c r="A19" t="s">
+        <v>20</v>
       </c>
       <c r="B19" s="2">
         <v>3.21</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>48</v>
+      <c r="A20" t="s">
+        <v>21</v>
       </c>
       <c r="B20" s="2">
         <v>3.11</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>60</v>
+      <c r="A21" t="s">
+        <v>22</v>
       </c>
       <c r="B21" s="2">
         <v>3.22</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>72</v>
+      <c r="A22" t="s">
+        <v>23</v>
       </c>
       <c r="B22" s="2">
         <v>3.23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>84</v>
+      <c r="A23" t="s">
+        <v>24</v>
       </c>
       <c r="B23" s="2">
         <v>3.49</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>96</v>
+      <c r="A24" t="s">
+        <v>25</v>
       </c>
       <c r="B24" s="2">
         <v>3.25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>108</v>
+      <c r="A25" t="s">
+        <v>26</v>
       </c>
       <c r="B25" s="2">
         <v>3.4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>120</v>
+      <c r="A26" t="s">
+        <v>27</v>
       </c>
       <c r="B26" s="2">
         <v>3.46</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>144</v>
+      <c r="A27" t="s">
+        <v>28</v>
       </c>
       <c r="B27" s="2">
         <v>3.3159999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>180</v>
+      <c r="A28" t="s">
+        <v>29</v>
       </c>
       <c r="B28" s="2">
         <v>3.3029999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>240</v>
+      <c r="A29" t="s">
+        <v>30</v>
       </c>
       <c r="B29" s="2">
         <v>3.09</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>300</v>
+      <c r="A30" t="s">
+        <v>31</v>
       </c>
       <c r="B30" s="2">
         <v>2.87</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>360</v>
+      <c r="A31" t="s">
+        <v>32</v>
       </c>
       <c r="B31" s="2">
         <v>2.649</v>

--- a/input_files/euribor_curve.xlsx
+++ b/input_files/euribor_curve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t004672\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2245F774-4409-4071-BE75-8DCBD65B9C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592C5DC6-4DF0-444D-9EF5-EDDFA3F9582A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14085" yWindow="-15000" windowWidth="20235" windowHeight="14400" activeTab="2" xr2:uid="{0A8E32F3-0BB1-4D11-836C-DFB303D664FC}"/>
+    <workbookView xWindow="-14085" yWindow="-15000" windowWidth="20235" windowHeight="14400" activeTab="1" xr2:uid="{0A8E32F3-0BB1-4D11-836C-DFB303D664FC}"/>
   </bookViews>
   <sheets>
     <sheet name="EURIBOR1M" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
-  <si>
-    <t>months</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
   <si>
     <t>rates</t>
   </si>
@@ -141,9 +138,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,9 +167,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -494,11 +487,12 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:I31"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
@@ -507,434 +501,405 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
         <v>0.84499999999999997</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
         <v>1.3</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
         <v>1.73</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.39</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.64</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.84</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>2.09</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2.64</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="E7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2.84</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3.16</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3.16</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>3.16</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3.18</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3.18</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3.16</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3.07</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B18" s="1">
+        <v>2.93</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3.02</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3.02</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="2">
-        <v>2.89</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="B21" s="1">
+        <v>3.13</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="2">
-        <v>2.93</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>36</v>
-      </c>
-      <c r="B19" s="2">
-        <v>3.02</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>48</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3.02</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>60</v>
-      </c>
-      <c r="B21" s="2">
-        <v>3.13</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>72</v>
-      </c>
-      <c r="B22" s="2">
-        <v>3.25</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>84</v>
-      </c>
-      <c r="B23" s="2">
-        <v>3.57</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>96</v>
-      </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>3.51</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="E24" s="1"/>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>108</v>
-      </c>
-      <c r="B25" s="2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
         <v>3.51</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="E25" s="1"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>120</v>
-      </c>
-      <c r="B26" s="2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
         <v>3.72</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="E26" s="1"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>144</v>
-      </c>
-      <c r="B27" s="2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
         <v>3.351</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="E27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>180</v>
-      </c>
-      <c r="B28" s="2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
         <v>3.3879999999999999</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="E28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>240</v>
-      </c>
-      <c r="B29" s="2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
         <v>3.23199999999999</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="E29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="E29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>300</v>
-      </c>
-      <c r="B30" s="2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1">
         <v>3.024</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="E30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="E30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>360</v>
-      </c>
-      <c r="B31" s="2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1">
         <v>2.8410000000000002</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="E31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="E31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E32" s="2"/>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E33" s="2"/>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E34" s="2"/>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="E35" s="1"/>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="E36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="E37" s="1"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="E38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="E39" s="1"/>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E40" s="2"/>
+      <c r="E40" s="1"/>
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E41" s="2"/>
+      <c r="E41" s="1"/>
     </row>
     <row r="42" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E42" s="2"/>
+      <c r="E42" s="1"/>
     </row>
     <row r="43" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E43" s="2"/>
+      <c r="E43" s="1"/>
     </row>
     <row r="44" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E44" s="2"/>
+      <c r="E44" s="1"/>
     </row>
     <row r="45" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="E45" s="1"/>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E46" s="2"/>
+      <c r="E46" s="1"/>
     </row>
     <row r="47" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="E47" s="1"/>
+      <c r="H47" s="1"/>
     </row>
     <row r="48" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E48" s="2"/>
+      <c r="E48" s="1"/>
     </row>
     <row r="49" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E49" s="2"/>
+      <c r="E49" s="1"/>
     </row>
     <row r="50" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E50" s="2"/>
+      <c r="E50" s="1"/>
     </row>
     <row r="51" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="E51" s="1"/>
+      <c r="H51" s="1"/>
     </row>
     <row r="52" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="E52" s="1"/>
+      <c r="H52" s="1"/>
     </row>
     <row r="53" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="E53" s="1"/>
+      <c r="H53" s="1"/>
     </row>
     <row r="54" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E54" s="2"/>
-      <c r="H54" s="2"/>
+      <c r="E54" s="1"/>
+      <c r="H54" s="1"/>
     </row>
     <row r="55" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="E55" s="1"/>
+      <c r="H55" s="1"/>
     </row>
     <row r="56" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="E56" s="1"/>
+      <c r="H56" s="1"/>
     </row>
     <row r="57" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="E57" s="1"/>
+      <c r="H57" s="1"/>
     </row>
     <row r="58" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E58" s="2"/>
-      <c r="H58" s="2"/>
+      <c r="E58" s="1"/>
+      <c r="H58" s="1"/>
     </row>
     <row r="59" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="E59" s="1"/>
+      <c r="H59" s="1"/>
     </row>
     <row r="60" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H60" s="2"/>
+      <c r="H60" s="1"/>
     </row>
     <row r="61" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H61" s="2"/>
+      <c r="H61" s="1"/>
     </row>
     <row r="62" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H62" s="2"/>
+      <c r="H62" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -945,126 +910,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045AC712-9F89-4AF6-AF9F-2FEA4492971F}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
         <v>1.3779999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1.82</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>2.27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
         <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
         <v>2.74</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
         <v>2.9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
         <v>3.02</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
         <v>3.09</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
         <v>3.17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
         <v>3.21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
         <v>3.22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
         <v>3.23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
         <v>3.23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
@@ -1072,130 +1040,130 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>18</v>
+      <c r="A16" t="s">
+        <v>16</v>
       </c>
       <c r="B16">
         <v>3.1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>21</v>
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
         <v>3.02</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>24</v>
+      <c r="A18" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
         <v>2.99</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>36</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
         <v>3.14</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>48</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
         <v>3.06</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>60</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1">
         <v>3.16</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>72</v>
-      </c>
-      <c r="B22" s="2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
         <v>3.18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>84</v>
-      </c>
-      <c r="B23" s="2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1">
         <v>3.49</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>96</v>
-      </c>
-      <c r="B24" s="2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
         <v>3.34</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>108</v>
-      </c>
-      <c r="B25" s="2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
         <v>3.4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>120</v>
-      </c>
-      <c r="B26" s="2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
         <v>3.56</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>144</v>
-      </c>
-      <c r="B27" s="2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
         <v>3.3114999999999899</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>180</v>
-      </c>
-      <c r="B28" s="2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
         <v>3.3180000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>240</v>
-      </c>
-      <c r="B29" s="2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
         <v>3.129</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>300</v>
-      </c>
-      <c r="B30" s="2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1">
         <v>2.9</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>360</v>
-      </c>
-      <c r="B31" s="2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1">
         <v>2.7069999999999999</v>
       </c>
     </row>
@@ -1208,9 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3EDD39-2C7F-4738-8B2A-88A87760AD8A}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1219,249 +1185,249 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
         <v>2.012</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
         <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
         <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
         <v>2.62</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
         <v>2.83</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
         <v>3.02</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
         <v>3.22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
         <v>3.22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
         <v>3.22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
         <v>3.22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
         <v>3.22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
         <v>3.23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
         <v>3.24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
         <v>3.22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
         <v>3.2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
         <v>3.15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
         <v>3.1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
         <v>3.21</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
         <v>3.11</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1">
         <v>3.22</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
         <v>3.23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1">
         <v>3.49</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="2">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
         <v>3.25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
         <v>3.4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
         <v>3.46</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="2">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
         <v>3.3159999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="2">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
         <v>3.3029999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="2">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
         <v>3.09</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="2">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1">
         <v>2.87</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="2">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1">
         <v>2.649</v>
       </c>
     </row>
